--- a/program/AxleLoad/后轴载荷分解-V1.xlsx
+++ b/program/AxleLoad/后轴载荷分解-V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19260" windowHeight="9000"/>
+    <workbookView windowWidth="15570" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,11 +188,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +200,128 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,14 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,123 +346,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,187 +362,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,17 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,8 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,26 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +665,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,19 +700,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,120 +721,123 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -834,6 +849,9 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +859,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1267,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1306,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1326,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1345,14 +1366,14 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>2</v>
+      <c r="C16" s="2">
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
-        <v>2</v>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -1362,7 +1383,7 @@
       </c>
       <c r="H16">
         <f>Mass*E4_xg*g*CG_hight/L</f>
-        <v>14011.8109325153</v>
+        <v>7005.90546625767</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1376,7 +1397,7 @@
         <v>0.8</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1413,181 +1434,181 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <f>Mass*g*E4_xg*E26/(Mass*g*E4_zg)</f>
-        <v>10624.2945337423</v>
-      </c>
-      <c r="F24" s="4">
+        <v>5312.14726687116</v>
+      </c>
+      <c r="F24" s="5">
         <f>-Mass*g*E5_xg*F26/Mass/g</f>
         <v>-9293.96974920245</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <f>-Mass*g*E6_xg/2</f>
         <v>-4795.14</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:8">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <f>Mass_r*g*E7_yg*H26/(Mass_r*g)</f>
         <v>9888.63580186747</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:8">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <f>Mass_r*g*E1_zg/2</f>
         <v>35260.4</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <f>Mass_r*g/2*E2_zg</f>
-        <v>24682.28</v>
-      </c>
-      <c r="D26" s="4">
+        <v>26445.3</v>
+      </c>
+      <c r="D26" s="6">
         <f>Mass_r*g/2*E3_zg</f>
-        <v>24682.28</v>
-      </c>
-      <c r="E26" s="4">
+        <v>26445.3</v>
+      </c>
+      <c r="E26" s="5">
         <f>(Mass_r*g*E4_zg-Mass*E4_xg*g*CG_hight/L)/2</f>
-        <v>10624.2945337423</v>
-      </c>
-      <c r="F26" s="4">
+        <v>5312.14726687116</v>
+      </c>
+      <c r="F26" s="5">
         <f>(Mass_r*g+Mass*E5_xg*g*CG_hight/L)/2</f>
         <v>11617.4621865031</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <f>(Mass_r*g+Mass*E6_xg*g*CG_hight/L)/2</f>
         <v>9865.98581993865</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <f>Mass_r*g/2+Mass_r*g*E7_yg*CG_hight/W</f>
         <v>14126.6225740964</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <f>Mass*g*E4_xg*E29/(Mass*g*E4_zg)</f>
-        <v>10624.2945337423</v>
-      </c>
-      <c r="F27" s="6">
+        <v>5312.14726687116</v>
+      </c>
+      <c r="F27" s="8">
         <f>-Mass*g*E5_xg*F26/Mass/g</f>
         <v>-9293.96974920245</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="8">
         <f>-Mass*g*E6_xg/2</f>
         <v>-4795.14</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
         <f>Mass_r*g*E7_yg*H29/(Mass_r*g)</f>
         <v>2452.50419813253</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="10">
         <f>Mass_r*g*E1_zg/2</f>
         <v>35260.4</v>
       </c>
@@ -1597,188 +1618,187 @@
       </c>
       <c r="D29" s="6">
         <f>Mass_r*g/2*E3_zg</f>
-        <v>24682.28</v>
-      </c>
-      <c r="E29" s="6">
+        <v>26445.3</v>
+      </c>
+      <c r="E29" s="8">
         <f>(Mass_r*g*E4_zg-Mass*E4_xg*g*CG_hight/L)/2</f>
-        <v>10624.2945337423</v>
-      </c>
-      <c r="F29" s="6">
+        <v>5312.14726687116</v>
+      </c>
+      <c r="F29" s="8">
         <f>(Mass_r*g+Mass*E5_xg*g*CG_hight/L)/2</f>
         <v>11617.4621865031</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="8">
         <f>(Mass_r*g+Mass*E6_xg*g*CG_hight/L)/2</f>
         <v>9865.98581993865</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="8">
         <f>Mass_r*g/2-Mass_r*g*E7_yg*CG_hight/W</f>
         <v>3503.57742590362</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <f>(Mass_r)*g/2*E2_xg</f>
-        <v>17630.2</v>
-      </c>
-      <c r="D30" s="4">
-        <f>Mass_r*g/2*E3_xg</f>
-        <v>17630.2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <f>(Mass_r-Mass_wheel*2)*g/2*E2_xg</f>
+        <v>18215.75</v>
+      </c>
+      <c r="D30" s="6">
+        <f>(Mass_r-Mass_wheel*2)*g/2*E3_xg</f>
+        <v>18215.75</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:8">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:8">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <f>(Mass_r-Mass_wheel*2)*g*E1_zg/2</f>
-        <v>29380.4</v>
-      </c>
-      <c r="C32" s="4">
+        <v>29145.2</v>
+      </c>
+      <c r="C32" s="5">
         <f>(Mass_r-Mass_wheel*2)*g/2*E2_zg</f>
-        <v>20566.28</v>
-      </c>
-      <c r="D32" s="4">
+        <v>21858.9</v>
+      </c>
+      <c r="D32" s="5">
         <f>(Mass_r-Mass_wheel*2)*g/2*E3_zg</f>
-        <v>20566.28</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+        <v>21858.9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>0</v>
       </c>
       <c r="C33" s="6">
-        <f>Mass_r*g/2*E2_xg</f>
-        <v>17630.2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
-        <f>Mass_r*g/2*E3_xg</f>
-        <v>17630.2</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
+        <f>(Mass_r-Mass_wheel*2)*g/2*E3_xg</f>
+        <v>18215.75</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <f>(Mass_r-Mass_wheel*2)*g*E1_zg/2</f>
-        <v>29380.4</v>
-      </c>
-      <c r="C35" s="6">
-        <f>(Mass_r-Mass_wheel*2)*g/2*E2_zg</f>
-        <v>20566.28</v>
-      </c>
-      <c r="D35" s="6">
+        <v>29145.2</v>
+      </c>
+      <c r="C35" s="8">
+        <f>(Mass_r-Mass_wheel*2)*g/2</f>
+        <v>7286.3</v>
+      </c>
+      <c r="D35" s="8">
         <f>(Mass_r-Mass_wheel*2)*g/2*E3_zg</f>
-        <v>20566.28</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
+        <v>21858.9</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1788,11 +1808,11 @@
       </c>
       <c r="E37">
         <f>(Mass_r*g*E4_zg+Mass*E4_xg*g*CG_hight/L)/2</f>
-        <v>24636.1054662577</v>
+        <v>12318.0527331288</v>
       </c>
       <c r="F37">
         <f>(Mass_r*g*E4_zg+Mass*E4_xg*g*CG_hight/L)/2</f>
-        <v>24636.1054662577</v>
+        <v>12318.0527331288</v>
       </c>
     </row>
     <row r="38" spans="4:6">
@@ -1801,7 +1821,7 @@
       </c>
       <c r="E38">
         <f>Mass*g*E4_xg*E26/(Mass*g*E4_zg)</f>
-        <v>10624.2945337423</v>
+        <v>5312.14726687116</v>
       </c>
       <c r="F38">
         <f>Mass*g*E4_xg*F26/(Mass*g*E4_zg)</f>
